--- a/src/test/java/testngTeam05/musteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/musteriBilgileri.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -33,22 +33,19 @@
     <t>lastName</t>
   </si>
   <si>
-    <t>musteri1234</t>
-  </si>
-  <si>
     <t>Ver</t>
   </si>
   <si>
-    <t>yeni sifre</t>
-  </si>
-  <si>
     <t>Allo</t>
   </si>
   <si>
-    <t>kullanicimehtap@gmail.com</t>
-  </si>
-  <si>
-    <t>kullanicimehtap</t>
+    <t>alloverkullanici09</t>
+  </si>
+  <si>
+    <t>alloverkullanici09@gmail.com</t>
+  </si>
+  <si>
+    <t>kullanici1234</t>
   </si>
 </sst>
 </file>
@@ -398,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B4" sqref="A4:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +410,7 @@
     <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -429,25 +426,22 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -460,12 +454,57 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/src/test/java/testngTeam05/musteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/musteriBilgileri.xlsx
@@ -398,7 +398,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B4"/>
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/test/java/testngTeam05/musteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/musteriBilgileri.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -46,6 +46,18 @@
   </si>
   <si>
     <t>kullanici1234</t>
+  </si>
+  <si>
+    <t>musteri1234</t>
+  </si>
+  <si>
+    <t>ipsam82637105</t>
+  </si>
+  <si>
+    <t>darell.beer</t>
+  </si>
+  <si>
+    <t>new password</t>
   </si>
 </sst>
 </file>
@@ -395,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -410,7 +422,7 @@
     <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,13 +438,16 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -442,6 +457,9 @@
       </c>
       <c r="E2" t="s">
         <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/testngTeam05/musteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/musteriBilgileri.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -48,22 +48,71 @@
     <t>kullanici1234</t>
   </si>
   <si>
-    <t>musteri1234</t>
-  </si>
-  <si>
     <t>ipsam82637105</t>
   </si>
   <si>
     <t>darell.beer</t>
   </si>
   <si>
-    <t>new password</t>
+    <t>ad41305258</t>
+  </si>
+  <si>
+    <t>leroy.heathcote</t>
+  </si>
+  <si>
+    <t>autem63139368</t>
+  </si>
+  <si>
+    <t>vernice.weber</t>
+  </si>
+  <si>
+    <t>sed76918594</t>
+  </si>
+  <si>
+    <t>garth.flatley</t>
+  </si>
+  <si>
+    <t>cumque16376710</t>
+  </si>
+  <si>
+    <t>cecelia.hoeger</t>
+  </si>
+  <si>
+    <t>distinctio51325651</t>
+  </si>
+  <si>
+    <t>marnie.bernier</t>
+  </si>
+  <si>
+    <t>odio34718240</t>
+  </si>
+  <si>
+    <t>deandre.terry</t>
+  </si>
+  <si>
+    <t>excepturi34015175</t>
+  </si>
+  <si>
+    <t>reinaldo.terry</t>
+  </si>
+  <si>
+    <t>nesciunt44208043</t>
+  </si>
+  <si>
+    <t>deanne.morissette</t>
+  </si>
+  <si>
+    <t>vel85228033</t>
+  </si>
+  <si>
+    <t>troy.schroeder</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -407,59 +456,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="18.28515625"/>
+    <col min="2" max="2" customWidth="true" width="13.140625"/>
+    <col min="3" max="3" customWidth="true" width="27.0"/>
+    <col min="4" max="4" customWidth="true" width="15.28515625"/>
+    <col min="6" max="6" customWidth="true" width="12.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -480,42 +523,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="15.0"/>
+    <col min="2" max="2" customWidth="true" width="14.28515625"/>
+    <col min="3" max="3" customWidth="true" width="29.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>5</v>
       </c>
     </row>

--- a/src/test/java/testngTeam05/musteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/musteriBilgileri.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -48,64 +48,34 @@
     <t>kullanici1234</t>
   </si>
   <si>
-    <t>ipsam82637105</t>
-  </si>
-  <si>
-    <t>darell.beer</t>
-  </si>
-  <si>
-    <t>ad41305258</t>
-  </si>
-  <si>
-    <t>leroy.heathcote</t>
-  </si>
-  <si>
-    <t>autem63139368</t>
-  </si>
-  <si>
-    <t>vernice.weber</t>
-  </si>
-  <si>
-    <t>sed76918594</t>
-  </si>
-  <si>
-    <t>garth.flatley</t>
-  </si>
-  <si>
-    <t>cumque16376710</t>
-  </si>
-  <si>
-    <t>cecelia.hoeger</t>
-  </si>
-  <si>
-    <t>distinctio51325651</t>
-  </si>
-  <si>
-    <t>marnie.bernier</t>
-  </si>
-  <si>
-    <t>odio34718240</t>
-  </si>
-  <si>
-    <t>deandre.terry</t>
-  </si>
-  <si>
-    <t>excepturi34015175</t>
-  </si>
-  <si>
-    <t>reinaldo.terry</t>
-  </si>
-  <si>
-    <t>nesciunt44208043</t>
-  </si>
-  <si>
-    <t>deanne.morissette</t>
-  </si>
-  <si>
-    <t>vel85228033</t>
-  </si>
-  <si>
-    <t>troy.schroeder</t>
+    <t>hue.lang</t>
+  </si>
+  <si>
+    <t>recusandae96568848</t>
+  </si>
+  <si>
+    <t>reprehenderit85150573</t>
+  </si>
+  <si>
+    <t>maddie.gleason</t>
+  </si>
+  <si>
+    <t>delectus12840865</t>
+  </si>
+  <si>
+    <t>del.friesen</t>
+  </si>
+  <si>
+    <t>in18523756</t>
+  </si>
+  <si>
+    <t>antony.kuhlman</t>
+  </si>
+  <si>
+    <t>nobis25540561</t>
+  </si>
+  <si>
+    <t>donald.heathcote</t>
   </si>
 </sst>
 </file>
@@ -459,7 +429,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,10 +460,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>

--- a/src/test/java/testngTeam05/musteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/musteriBilgileri.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_F86C59B497E9808CFE31F47C068468A5B6558142" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="14880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -51,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,14 +118,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Ofis Teması">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Ofis">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -149,7 +166,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Ofis">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -221,7 +238,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Ofis">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -394,23 +411,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -427,7 +444,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -446,28 +463,29 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +502,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -503,19 +521,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/java/testngTeam05/musteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/musteriBilgileri.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -76,6 +76,54 @@
   </si>
   <si>
     <t>donald.heathcote</t>
+  </si>
+  <si>
+    <t>rerum35349652</t>
+  </si>
+  <si>
+    <t>heriberto.cartwright</t>
+  </si>
+  <si>
+    <t>consequuntur20130681</t>
+  </si>
+  <si>
+    <t>sergio.pfeffer</t>
+  </si>
+  <si>
+    <t>dicta72571859</t>
+  </si>
+  <si>
+    <t>margeret.konopelski</t>
+  </si>
+  <si>
+    <t>soluta50111662</t>
+  </si>
+  <si>
+    <t>halina.schulist</t>
+  </si>
+  <si>
+    <t>voluptatem36263644</t>
+  </si>
+  <si>
+    <t>altha.langworth</t>
+  </si>
+  <si>
+    <t>ea76810643</t>
+  </si>
+  <si>
+    <t>eugenio.bahringer</t>
+  </si>
+  <si>
+    <t>et88065262</t>
+  </si>
+  <si>
+    <t>ying.jacobs</t>
+  </si>
+  <si>
+    <t>nisi96878814</t>
+  </si>
+  <si>
+    <t>german.greenholt</t>
   </si>
 </sst>
 </file>
@@ -460,10 +508,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>

--- a/src/test/java/testngTeam05/musteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/musteriBilgileri.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -124,6 +124,24 @@
   </si>
   <si>
     <t>german.greenholt</t>
+  </si>
+  <si>
+    <t>perferendis3188</t>
+  </si>
+  <si>
+    <t>genaro.schulist</t>
+  </si>
+  <si>
+    <t>soluta3587</t>
+  </si>
+  <si>
+    <t>jessie.mohr</t>
+  </si>
+  <si>
+    <t>ut7522</t>
+  </si>
+  <si>
+    <t>kandice.fisher</t>
   </si>
 </sst>
 </file>
@@ -508,10 +526,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="0">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>

--- a/src/test/java/testngTeam05/musteriBilgileri.xlsx
+++ b/src/test/java/testngTeam05/musteriBilgileri.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>kullaniciAdi</t>
   </si>
@@ -48,107 +48,16 @@
     <t>kullanici1234</t>
   </si>
   <si>
-    <t>hue.lang</t>
-  </si>
-  <si>
-    <t>recusandae96568848</t>
-  </si>
-  <si>
-    <t>reprehenderit85150573</t>
-  </si>
-  <si>
-    <t>maddie.gleason</t>
-  </si>
-  <si>
-    <t>delectus12840865</t>
-  </si>
-  <si>
-    <t>del.friesen</t>
-  </si>
-  <si>
-    <t>in18523756</t>
-  </si>
-  <si>
-    <t>antony.kuhlman</t>
-  </si>
-  <si>
-    <t>nobis25540561</t>
-  </si>
-  <si>
-    <t>donald.heathcote</t>
-  </si>
-  <si>
-    <t>rerum35349652</t>
-  </si>
-  <si>
-    <t>heriberto.cartwright</t>
-  </si>
-  <si>
-    <t>consequuntur20130681</t>
-  </si>
-  <si>
-    <t>sergio.pfeffer</t>
-  </si>
-  <si>
-    <t>dicta72571859</t>
-  </si>
-  <si>
-    <t>margeret.konopelski</t>
-  </si>
-  <si>
-    <t>soluta50111662</t>
-  </si>
-  <si>
-    <t>halina.schulist</t>
-  </si>
-  <si>
-    <t>voluptatem36263644</t>
-  </si>
-  <si>
-    <t>altha.langworth</t>
-  </si>
-  <si>
-    <t>ea76810643</t>
-  </si>
-  <si>
-    <t>eugenio.bahringer</t>
-  </si>
-  <si>
-    <t>et88065262</t>
-  </si>
-  <si>
-    <t>ying.jacobs</t>
-  </si>
-  <si>
-    <t>nisi96878814</t>
-  </si>
-  <si>
-    <t>german.greenholt</t>
-  </si>
-  <si>
-    <t>perferendis3188</t>
-  </si>
-  <si>
-    <t>genaro.schulist</t>
-  </si>
-  <si>
-    <t>soluta3587</t>
-  </si>
-  <si>
-    <t>jessie.mohr</t>
-  </si>
-  <si>
-    <t>ut7522</t>
-  </si>
-  <si>
-    <t>kandice.fisher</t>
+    <t>quos81107621</t>
+  </si>
+  <si>
+    <t>sana.dooley</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -500,44 +409,44 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.28515625"/>
-    <col min="2" max="2" customWidth="true" width="13.140625"/>
-    <col min="3" max="3" customWidth="true" width="27.0"/>
-    <col min="4" max="4" customWidth="true" width="15.28515625"/>
-    <col min="6" max="6" customWidth="true" width="12.140625"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" customWidth="1"/>
+    <col min="3" max="3" width="27" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>40</v>
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -559,42 +468,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="15.0"/>
-    <col min="2" max="2" customWidth="true" width="14.28515625"/>
-    <col min="3" max="3" customWidth="true" width="29.5703125"/>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="0">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="0">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="0">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
